--- a/Question/Languages/Java/Java _I.xlsx
+++ b/Question/Languages/Java/Java _I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\Languages\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25740488-A98A-4C80-893F-77BB0A1C48DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483005E3-900E-4EC4-83EE-096B54386C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Question/Languages/Java/Java _I.xlsx
+++ b/Question/Languages/Java/Java _I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\Languages\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483005E3-900E-4EC4-83EE-096B54386C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACF5634-E573-4D81-B602-CB193DC2F143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
